--- a/biology/Zoologie/Diphyllostomatidae/Diphyllostomatidae.xlsx
+++ b/biology/Zoologie/Diphyllostomatidae/Diphyllostomatidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Diphyllostomatidae sont une famille de coléoptères d'environ 3 espèces[1]. Elle appartient à la super-famille des Scarabaeoidea (scarabées). La famille est endémique dans le nord-ouest de la Californie. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Diphyllostomatidae sont une famille de coléoptères d'environ 3 espèces. Elle appartient à la super-famille des Scarabaeoidea (scarabées). La famille est endémique dans le nord-ouest de la Californie. 
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces appartenant à cette famille mesurent entre 5 et 9 millimètres de long.
 </t>
@@ -542,11 +556,48 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cette famille ne comprend qu'une sous-famille : Diphyllostomatinae (Holloway, 1972) ne comportant qu'un seul genre : Diphyllostoma Fall, 1901.
-Liste des espèces
-D'après BioLib                    (29 janv. 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette famille ne comprend qu'une sous-famille : Diphyllostomatinae (Holloway, 1972) ne comportant qu'un seul genre : Diphyllostoma Fall, 1901.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Diphyllostomatidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Diphyllostomatidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D'après BioLib                    (29 janv. 2017) :
 Diphyllostoma fimbriata (Fall, 1901)
 Diphyllostoma linsleyi Fall, 1932
 Diphyllostoma nigricollis Fall, 1912</t>
